--- a/WorkingDocs/03b_TDF_VariableSpecification.xlsx
+++ b/WorkingDocs/03b_TDF_VariableSpecification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PeterS\Documents\TestDataFactory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\omseafile01.omeros.local\users\dditommaso\documents\SP\PhUSE\TDF_Material\WorkingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EB11DC-D128-4317-A56A-C234C30650F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F59E12C-DF94-4F02-B776-9E1D0B13C577}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="1965" windowWidth="24255" windowHeight="12945" xr2:uid="{880C47D5-0322-439C-976E-C01FC6A3EC9D}"/>
+    <workbookView xWindow="26160" yWindow="-1350" windowWidth="21600" windowHeight="11505" xr2:uid="{880C47D5-0322-439C-976E-C01FC6A3EC9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Modeling" sheetId="3" r:id="rId1"/>
@@ -18,17 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Variable Modeling'!$A$1:$E$14</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Type</t>
   </si>
@@ -182,12 +188,42 @@
   <si>
     <t>^invnam^|^invid^</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(contains the "|"-separated list of values)
+codelist(ct-id, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>term-weight-list|dset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,13 +259,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -245,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -266,6 +316,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -585,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2D4D11-0CDE-4425-AE04-397E11022DFF}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,10 +751,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>17</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
